--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd72</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H2">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.81058968680741</v>
+        <v>2.821352666666667</v>
       </c>
       <c r="N2">
-        <v>2.81058968680741</v>
+        <v>8.464058000000001</v>
       </c>
       <c r="O2">
-        <v>0.07413379997674223</v>
+        <v>0.06564465474960138</v>
       </c>
       <c r="P2">
-        <v>0.07413379997674223</v>
+        <v>0.06564465474960136</v>
       </c>
       <c r="Q2">
-        <v>3.478548411022396</v>
+        <v>2.463175362477112</v>
       </c>
       <c r="R2">
-        <v>3.478548411022396</v>
+        <v>22.16857826229401</v>
       </c>
       <c r="S2">
-        <v>0.00218503091265421</v>
+        <v>0.001142826731986122</v>
       </c>
       <c r="T2">
-        <v>0.00218503091265421</v>
+        <v>0.001142826731986122</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H3">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.78359591360025</v>
+        <v>4.044796666666667</v>
       </c>
       <c r="N3">
-        <v>3.78359591360025</v>
+        <v>12.13439</v>
       </c>
       <c r="O3">
-        <v>0.09979839603349416</v>
+        <v>0.09411063134810931</v>
       </c>
       <c r="P3">
-        <v>0.09979839603349416</v>
+        <v>0.09411063134810929</v>
       </c>
       <c r="Q3">
-        <v>4.682797213333275</v>
+        <v>3.531300291974445</v>
       </c>
       <c r="R3">
-        <v>4.682797213333275</v>
+        <v>31.78170262777</v>
       </c>
       <c r="S3">
-        <v>0.00294147312608964</v>
+        <v>0.001638399130576029</v>
       </c>
       <c r="T3">
-        <v>0.00294147312608964</v>
+        <v>0.001638399130576029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H4">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.6304925974816</v>
+        <v>34.17538566666667</v>
       </c>
       <c r="N4">
-        <v>29.6304925974816</v>
+        <v>102.526157</v>
       </c>
       <c r="O4">
-        <v>0.781551651507416</v>
+        <v>0.7951616327615461</v>
       </c>
       <c r="P4">
-        <v>0.781551651507416</v>
+        <v>0.7951616327615459</v>
       </c>
       <c r="Q4">
-        <v>36.67241199474423</v>
+        <v>29.83674071371679</v>
       </c>
       <c r="R4">
-        <v>36.67241199474423</v>
+        <v>268.5306664234511</v>
       </c>
       <c r="S4">
-        <v>0.02303557242331312</v>
+        <v>0.013843198256369</v>
       </c>
       <c r="T4">
-        <v>0.02303557242331312</v>
+        <v>0.013843198256369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H5">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I5">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J5">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.68771382422707</v>
+        <v>1.937633333333334</v>
       </c>
       <c r="N5">
-        <v>1.68771382422707</v>
+        <v>5.812900000000001</v>
       </c>
       <c r="O5">
-        <v>0.04451615248234762</v>
+        <v>0.04508308114074334</v>
       </c>
       <c r="P5">
-        <v>0.04451615248234762</v>
+        <v>0.04508308114074334</v>
       </c>
       <c r="Q5">
-        <v>2.088812276328505</v>
+        <v>1.691646260522223</v>
       </c>
       <c r="R5">
-        <v>2.088812276328505</v>
+        <v>15.2248163447</v>
       </c>
       <c r="S5">
-        <v>0.001312075859012677</v>
+        <v>0.0007848643653389579</v>
       </c>
       <c r="T5">
-        <v>0.001312075859012677</v>
+        <v>0.0007848643653389579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H6">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.81058968680741</v>
+        <v>2.821352666666667</v>
       </c>
       <c r="N6">
-        <v>2.81058968680741</v>
+        <v>8.464058000000001</v>
       </c>
       <c r="O6">
-        <v>0.07413379997674223</v>
+        <v>0.06564465474960138</v>
       </c>
       <c r="P6">
-        <v>0.07413379997674223</v>
+        <v>0.06564465474960136</v>
       </c>
       <c r="Q6">
-        <v>109.159534534217</v>
+        <v>3.533779952133779</v>
       </c>
       <c r="R6">
-        <v>109.159534534217</v>
+        <v>31.80401956920401</v>
       </c>
       <c r="S6">
-        <v>0.06856795685591892</v>
+        <v>0.001639549605673944</v>
       </c>
       <c r="T6">
-        <v>0.06856795685591892</v>
+        <v>0.001639549605673943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H7">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.78359591360025</v>
+        <v>4.044796666666667</v>
       </c>
       <c r="N7">
-        <v>3.78359591360025</v>
+        <v>12.13439</v>
       </c>
       <c r="O7">
-        <v>0.09979839603349416</v>
+        <v>0.09411063134810931</v>
       </c>
       <c r="P7">
-        <v>0.09979839603349416</v>
+        <v>0.09411063134810929</v>
       </c>
       <c r="Q7">
-        <v>146.949791615908</v>
+        <v>5.066159059091111</v>
       </c>
       <c r="R7">
-        <v>146.949791615908</v>
+        <v>45.59543153182</v>
       </c>
       <c r="S7">
-        <v>0.09230569747755224</v>
+        <v>0.002350519613593603</v>
       </c>
       <c r="T7">
-        <v>0.09230569747755224</v>
+        <v>0.002350519613593602</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H8">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J8">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.6304925974816</v>
+        <v>34.17538566666667</v>
       </c>
       <c r="N8">
-        <v>29.6304925974816</v>
+        <v>102.526157</v>
       </c>
       <c r="O8">
-        <v>0.781551651507416</v>
+        <v>0.7951616327615461</v>
       </c>
       <c r="P8">
-        <v>0.781551651507416</v>
+        <v>0.7951616327615459</v>
       </c>
       <c r="Q8">
-        <v>1150.808599043397</v>
+        <v>42.80510343571846</v>
       </c>
       <c r="R8">
-        <v>1150.808599043397</v>
+        <v>385.2459309214661</v>
       </c>
       <c r="S8">
-        <v>0.7228740458204641</v>
+        <v>0.01986006242875638</v>
       </c>
       <c r="T8">
-        <v>0.7228740458204641</v>
+        <v>0.01986006242875637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H9">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J9">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.68771382422707</v>
+        <v>1.937633333333334</v>
       </c>
       <c r="N9">
-        <v>1.68771382422707</v>
+        <v>5.812900000000001</v>
       </c>
       <c r="O9">
-        <v>0.04451615248234762</v>
+        <v>0.04508308114074334</v>
       </c>
       <c r="P9">
-        <v>0.04451615248234762</v>
+        <v>0.04508308114074334</v>
       </c>
       <c r="Q9">
-        <v>65.54854176842154</v>
+        <v>2.426910293355556</v>
       </c>
       <c r="R9">
-        <v>65.54854176842154</v>
+        <v>21.8421926402</v>
       </c>
       <c r="S9">
-        <v>0.04117395336214701</v>
+        <v>0.001126001015449335</v>
       </c>
       <c r="T9">
-        <v>0.04117395336214701</v>
+        <v>0.001126001015449335</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H10">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I10">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J10">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.81058968680741</v>
+        <v>2.821352666666667</v>
       </c>
       <c r="N10">
-        <v>2.81058968680741</v>
+        <v>8.464058000000001</v>
       </c>
       <c r="O10">
-        <v>0.07413379997674223</v>
+        <v>0.06564465474960138</v>
       </c>
       <c r="P10">
-        <v>0.07413379997674223</v>
+        <v>0.06564465474960136</v>
       </c>
       <c r="Q10">
-        <v>5.382220849409476</v>
+        <v>128.7481207378114</v>
       </c>
       <c r="R10">
-        <v>5.382220849409476</v>
+        <v>1158.733086640302</v>
       </c>
       <c r="S10">
-        <v>0.00338081220816909</v>
+        <v>0.05973459962029596</v>
       </c>
       <c r="T10">
-        <v>0.00338081220816909</v>
+        <v>0.05973459962029595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H11">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I11">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J11">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.78359591360025</v>
+        <v>4.044796666666667</v>
       </c>
       <c r="N11">
-        <v>3.78359591360025</v>
+        <v>12.13439</v>
       </c>
       <c r="O11">
-        <v>0.09979839603349416</v>
+        <v>0.09411063134810931</v>
       </c>
       <c r="P11">
-        <v>0.09979839603349416</v>
+        <v>0.09411063134810929</v>
       </c>
       <c r="Q11">
-        <v>7.24550755576553</v>
+        <v>184.5781194788233</v>
       </c>
       <c r="R11">
-        <v>7.24550755576553</v>
+        <v>1661.20307530941</v>
       </c>
       <c r="S11">
-        <v>0.004551225429852269</v>
+        <v>0.08563775535169099</v>
       </c>
       <c r="T11">
-        <v>0.004551225429852269</v>
+        <v>0.08563775535169098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H12">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I12">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J12">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.6304925974816</v>
+        <v>34.17538566666667</v>
       </c>
       <c r="N12">
-        <v>29.6304925974816</v>
+        <v>102.526157</v>
       </c>
       <c r="O12">
-        <v>0.781551651507416</v>
+        <v>0.7951616327615461</v>
       </c>
       <c r="P12">
-        <v>0.781551651507416</v>
+        <v>0.7951616327615459</v>
       </c>
       <c r="Q12">
-        <v>56.74177763656134</v>
+        <v>1559.54153908442</v>
       </c>
       <c r="R12">
-        <v>56.74177763656134</v>
+        <v>14035.87385175978</v>
       </c>
       <c r="S12">
-        <v>0.03564203326363873</v>
+        <v>0.7235724210541331</v>
       </c>
       <c r="T12">
-        <v>0.03564203326363873</v>
+        <v>0.723572421054133</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>45.633473</v>
+      </c>
+      <c r="H13">
+        <v>136.900419</v>
+      </c>
+      <c r="I13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="J13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.937633333333334</v>
+      </c>
+      <c r="N13">
+        <v>5.812900000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.04508308114074334</v>
+      </c>
+      <c r="P13">
+        <v>0.04508308114074334</v>
+      </c>
+      <c r="Q13">
+        <v>88.42093840056668</v>
+      </c>
+      <c r="R13">
+        <v>795.7884456051002</v>
+      </c>
+      <c r="S13">
+        <v>0.04102420542638276</v>
+      </c>
+      <c r="T13">
+        <v>0.04102420542638275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J14">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.821352666666667</v>
+      </c>
+      <c r="N14">
+        <v>8.464058000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.06564465474960138</v>
+      </c>
+      <c r="P14">
+        <v>0.06564465474960136</v>
+      </c>
+      <c r="Q14">
+        <v>6.741198053649113</v>
+      </c>
+      <c r="R14">
+        <v>60.67078248284201</v>
+      </c>
+      <c r="S14">
+        <v>0.003127678791645356</v>
+      </c>
+      <c r="T14">
+        <v>0.003127678791645355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J15">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.044796666666667</v>
+      </c>
+      <c r="N15">
+        <v>12.13439</v>
+      </c>
+      <c r="O15">
+        <v>0.09411063134810931</v>
+      </c>
+      <c r="P15">
+        <v>0.09411063134810929</v>
+      </c>
+      <c r="Q15">
+        <v>9.664433567234445</v>
+      </c>
+      <c r="R15">
+        <v>86.97990210511001</v>
+      </c>
+      <c r="S15">
+        <v>0.004483957252248682</v>
+      </c>
+      <c r="T15">
+        <v>0.004483957252248682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="H13">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="I13">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="J13">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.68771382422707</v>
-      </c>
-      <c r="N13">
-        <v>1.68771382422707</v>
-      </c>
-      <c r="O13">
-        <v>0.04451615248234762</v>
-      </c>
-      <c r="P13">
-        <v>0.04451615248234762</v>
-      </c>
-      <c r="Q13">
-        <v>3.23193690463932</v>
-      </c>
-      <c r="R13">
-        <v>3.23193690463932</v>
-      </c>
-      <c r="S13">
-        <v>0.00203012326118793</v>
-      </c>
-      <c r="T13">
-        <v>0.00203012326118793</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J16">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>34.17538566666667</v>
+      </c>
+      <c r="N16">
+        <v>102.526157</v>
+      </c>
+      <c r="O16">
+        <v>0.7951616327615461</v>
+      </c>
+      <c r="P16">
+        <v>0.7951616327615459</v>
+      </c>
+      <c r="Q16">
+        <v>81.6569463508548</v>
+      </c>
+      <c r="R16">
+        <v>734.9125171576932</v>
+      </c>
+      <c r="S16">
+        <v>0.03788595102228765</v>
+      </c>
+      <c r="T16">
+        <v>0.03788595102228765</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J17">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.937633333333334</v>
+      </c>
+      <c r="N17">
+        <v>5.812900000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.04508308114074334</v>
+      </c>
+      <c r="P17">
+        <v>0.04508308114074334</v>
+      </c>
+      <c r="Q17">
+        <v>4.629683559122223</v>
+      </c>
+      <c r="R17">
+        <v>41.66715203210001</v>
+      </c>
+      <c r="S17">
+        <v>0.002148010333572299</v>
+      </c>
+      <c r="T17">
+        <v>0.002148010333572299</v>
       </c>
     </row>
   </sheetData>
